--- a/Plantillas/SOLICITUD DE COMPRA EDITABLE.xlsx
+++ b/Plantillas/SOLICITUD DE COMPRA EDITABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://andrewstech-my.sharepoint.com/personal/rtorres_andrewstech_net/Documents/Escritorio/TOP DIRVE OFICINA/SOLICITUD DE COMPRAS/AÑO 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maestra Flor\Gestor-Autorizaciones y Pagos\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33810DC5-0EEF-413A-BE38-ED433EA4612D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422767D-96E7-419A-85ED-42FA230D4584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C182428-7CF2-4D47-A90B-9EF567B46F51}"/>
+    <workbookView xWindow="14895" yWindow="0" windowWidth="14010" windowHeight="15495" xr2:uid="{9C182428-7CF2-4D47-A90B-9EF567B46F51}"/>
   </bookViews>
   <sheets>
     <sheet name="OPE-069" sheetId="6" r:id="rId1"/>
@@ -134,6 +134,43 @@
     </r>
   </si>
   <si>
+    <t>OPE-</t>
+  </si>
+  <si>
+    <r>
+      <t>OBSERVACIONES:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <r>
+      <t>Puesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -153,44 +190,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Representante tecnico</t>
-    </r>
-  </si>
-  <si>
-    <t>OPE-</t>
-  </si>
-  <si>
-    <r>
-      <t>OBSERVACIONES:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre:</t>
-  </si>
-  <si>
-    <r>
-      <t>Puesto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Gerente de Operaciones</t>
     </r>
   </si>
 </sst>
@@ -557,6 +557,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,117 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H18" sqref="H18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,53 +1362,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="51" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="2">
         <v>45505</v>
       </c>
@@ -1437,12 +1437,12 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,17 +1457,17 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1481,10 +1481,10 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="38"/>
       <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1500,51 +1500,51 @@
     </row>
     <row r="11" spans="1:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="G13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="4"/>
       <c r="I15" s="17"/>
     </row>
@@ -1558,88 +1558,88 @@
       <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="72" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
       <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="A19" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
@@ -1653,18 +1653,18 @@
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
@@ -1683,32 +1683,32 @@
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="27"/>
+      <c r="H27" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="27"/>
-      <c r="H27" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="27"/>
+      <c r="H28" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="27"/>
-      <c r="H28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="27"/>
@@ -1720,6 +1720,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A19:I20"/>
+    <mergeCell ref="A21:I22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="A12:B12"/>
@@ -1730,25 +1749,6 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A19:I20"/>
-    <mergeCell ref="A21:I22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
